--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-16.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="139">
   <si>
     <t>League</t>
   </si>
@@ -431,171 +431,6 @@
   </si>
   <si>
     <t>St Louis City SC</t>
-  </si>
-  <si>
-    <t>33096958</t>
-  </si>
-  <si>
-    <t>33096663</t>
-  </si>
-  <si>
-    <t>33098476</t>
-  </si>
-  <si>
-    <t>33096943</t>
-  </si>
-  <si>
-    <t>33096750</t>
-  </si>
-  <si>
-    <t>33096962</t>
-  </si>
-  <si>
-    <t>33112939</t>
-  </si>
-  <si>
-    <t>33098377</t>
-  </si>
-  <si>
-    <t>33096711</t>
-  </si>
-  <si>
-    <t>33098867</t>
-  </si>
-  <si>
-    <t>33098502</t>
-  </si>
-  <si>
-    <t>1.225986099</t>
-  </si>
-  <si>
-    <t>1.225981759</t>
-  </si>
-  <si>
-    <t>1.226012535</t>
-  </si>
-  <si>
-    <t>1.225986207</t>
-  </si>
-  <si>
-    <t>1.225984939</t>
-  </si>
-  <si>
-    <t>1.225985991</t>
-  </si>
-  <si>
-    <t>1.226210026</t>
-  </si>
-  <si>
-    <t>1.226011720</t>
-  </si>
-  <si>
-    <t>1.225984139</t>
-  </si>
-  <si>
-    <t>1.226022500</t>
-  </si>
-  <si>
-    <t>1.226013440</t>
-  </si>
-  <si>
-    <t>1.225986109</t>
-  </si>
-  <si>
-    <t>1.225981769</t>
-  </si>
-  <si>
-    <t>1.226012545</t>
-  </si>
-  <si>
-    <t>1.225986217</t>
-  </si>
-  <si>
-    <t>1.225984949</t>
-  </si>
-  <si>
-    <t>1.225986001</t>
-  </si>
-  <si>
-    <t>1.226210071</t>
-  </si>
-  <si>
-    <t>1.226011765</t>
-  </si>
-  <si>
-    <t>1.225984184</t>
-  </si>
-  <si>
-    <t>1.226022510</t>
-  </si>
-  <si>
-    <t>1.226013450</t>
-  </si>
-  <si>
-    <t>1.225986098</t>
-  </si>
-  <si>
-    <t>1.225981758</t>
-  </si>
-  <si>
-    <t>1.226012534</t>
-  </si>
-  <si>
-    <t>1.225986206</t>
-  </si>
-  <si>
-    <t>1.225984938</t>
-  </si>
-  <si>
-    <t>1.225985990</t>
-  </si>
-  <si>
-    <t>1.226210110</t>
-  </si>
-  <si>
-    <t>1.226011804</t>
-  </si>
-  <si>
-    <t>1.225984223</t>
-  </si>
-  <si>
-    <t>1.226022499</t>
-  </si>
-  <si>
-    <t>1.226013439</t>
-  </si>
-  <si>
-    <t>1.225986108</t>
-  </si>
-  <si>
-    <t>1.225981768</t>
-  </si>
-  <si>
-    <t>1.226012544</t>
-  </si>
-  <si>
-    <t>1.225986216</t>
-  </si>
-  <si>
-    <t>1.225984948</t>
-  </si>
-  <si>
-    <t>1.225986000</t>
-  </si>
-  <si>
-    <t>1.226210035</t>
-  </si>
-  <si>
-    <t>1.226011729</t>
-  </si>
-  <si>
-    <t>1.225984148</t>
-  </si>
-  <si>
-    <t>1.226022509</t>
-  </si>
-  <si>
-    <t>1.226013449</t>
   </si>
 </sst>
 </file>
@@ -3737,43 +3572,43 @@
         <v>1.8</v>
       </c>
       <c r="G15">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="H15">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I15">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J15">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K15">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L15">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="M15">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="N15">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="O15">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="P15">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q15">
         <v>2.24</v>
       </c>
       <c r="R15">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T15">
         <v>9.6</v>
@@ -3791,10 +3626,10 @@
         <v>34</v>
       </c>
       <c r="Y15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z15">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AA15">
         <v>150</v>
@@ -3803,7 +3638,7 @@
         <v>6.6</v>
       </c>
       <c r="AC15">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD15">
         <v>7.6</v>
@@ -3812,13 +3647,13 @@
         <v>8.4</v>
       </c>
       <c r="AF15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG15">
         <v>22</v>
       </c>
       <c r="AH15">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AI15">
         <v>90</v>
@@ -3842,16 +3677,16 @@
         <v>25</v>
       </c>
       <c r="AP15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ15">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR15">
         <v>17</v>
       </c>
       <c r="AS15">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AT15">
         <v>19</v>
@@ -3866,7 +3701,7 @@
         <v>48</v>
       </c>
       <c r="AX15">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AY15">
         <v>180</v>
@@ -3875,16 +3710,16 @@
         <v>13</v>
       </c>
       <c r="BA15">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BB15">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="BC15">
         <v>130</v>
       </c>
       <c r="BD15">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="BE15">
         <v>1000</v>
@@ -3931,34 +3766,34 @@
         <v>127</v>
       </c>
       <c r="F16">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G16">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H16">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I16">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J16">
         <v>3.1</v>
       </c>
       <c r="K16">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L16">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M16">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="N16">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="O16">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="P16">
         <v>2.08</v>
@@ -3982,16 +3817,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="W16">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="X16">
         <v>21</v>
       </c>
       <c r="Y16">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Z16">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AA16">
         <v>980</v>
@@ -4003,7 +3838,7 @@
         <v>8</v>
       </c>
       <c r="AD16">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE16">
         <v>8</v>
@@ -4012,10 +3847,10 @@
         <v>14</v>
       </c>
       <c r="AG16">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH16">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AI16">
         <v>980</v>
@@ -4039,49 +3874,49 @@
         <v>980</v>
       </c>
       <c r="AP16">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AQ16">
         <v>980</v>
       </c>
       <c r="AR16">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AS16">
         <v>980</v>
       </c>
       <c r="AT16">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AU16">
         <v>980</v>
       </c>
       <c r="AV16">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AW16">
         <v>980</v>
       </c>
       <c r="AX16">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AY16">
         <v>980</v>
       </c>
       <c r="AZ16">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="BA16">
         <v>980</v>
       </c>
       <c r="BB16">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="BC16">
         <v>980</v>
       </c>
       <c r="BD16">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="BE16">
         <v>1000</v>
@@ -4128,52 +3963,52 @@
         <v>128</v>
       </c>
       <c r="F17">
+        <v>2.96</v>
+      </c>
+      <c r="G17">
         <v>2.98</v>
       </c>
-      <c r="G17">
-        <v>3.1</v>
-      </c>
       <c r="H17">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I17">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J17">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K17">
         <v>3.9</v>
       </c>
       <c r="L17">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="M17">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="N17">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="O17">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="P17">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="Q17">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R17">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="S17">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="T17">
         <v>16.5</v>
       </c>
       <c r="U17">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="V17">
         <v>12</v>
@@ -4182,10 +4017,10 @@
         <v>13.5</v>
       </c>
       <c r="X17">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y17">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z17">
         <v>28</v>
@@ -4194,16 +4029,16 @@
         <v>36</v>
       </c>
       <c r="AB17">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD17">
         <v>7.8</v>
       </c>
       <c r="AE17">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF17">
         <v>10.5</v>
@@ -4221,7 +4056,7 @@
         <v>20</v>
       </c>
       <c r="AK17">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL17">
         <v>12</v>
@@ -4236,10 +4071,10 @@
         <v>16.5</v>
       </c>
       <c r="AP17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ17">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AR17">
         <v>42</v>
@@ -4248,10 +4083,10 @@
         <v>55</v>
       </c>
       <c r="AT17">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AU17">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AV17">
         <v>32</v>
@@ -4260,31 +4095,31 @@
         <v>40</v>
       </c>
       <c r="AX17">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AY17">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AZ17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA17">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC17">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BD17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BE17">
         <v>980</v>
       </c>
-      <c r="BF17" t="s">
-        <v>139</v>
+      <c r="BF17">
+        <v>33096958</v>
       </c>
       <c r="BG17">
         <v>7533070</v>
@@ -4295,17 +4130,17 @@
       <c r="BI17">
         <v>58805</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>150</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>172</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>183</v>
+      <c r="BJ17">
+        <v>1.225986099</v>
+      </c>
+      <c r="BK17">
+        <v>1.225986109</v>
+      </c>
+      <c r="BL17">
+        <v>1.225986098</v>
+      </c>
+      <c r="BM17">
+        <v>1.225986108</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4328,13 +4163,13 @@
         <v>1.97</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H18">
         <v>4.1</v>
       </c>
       <c r="I18">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J18">
         <v>3.75</v>
@@ -4346,10 +4181,10 @@
         <v>1.98</v>
       </c>
       <c r="M18">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="N18">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="O18">
         <v>2.02</v>
@@ -4358,10 +4193,10 @@
         <v>1.83</v>
       </c>
       <c r="Q18">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R18">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="S18">
         <v>2.2</v>
@@ -4388,10 +4223,10 @@
         <v>34</v>
       </c>
       <c r="AA18">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AB18">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC18">
         <v>9.6</v>
@@ -4409,7 +4244,7 @@
         <v>17.5</v>
       </c>
       <c r="AH18">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AI18">
         <v>55</v>
@@ -4463,13 +4298,13 @@
         <v>130</v>
       </c>
       <c r="AZ18">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="BA18">
         <v>14</v>
       </c>
       <c r="BB18">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BC18">
         <v>980</v>
@@ -4480,8 +4315,8 @@
       <c r="BE18">
         <v>1000</v>
       </c>
-      <c r="BF18" t="s">
-        <v>140</v>
+      <c r="BF18">
+        <v>33096663</v>
       </c>
       <c r="BG18">
         <v>1432923</v>
@@ -4492,17 +4327,17 @@
       <c r="BI18">
         <v>58805</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>151</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>162</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>173</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>184</v>
+      <c r="BJ18">
+        <v>1.225981759</v>
+      </c>
+      <c r="BK18">
+        <v>1.225981769</v>
+      </c>
+      <c r="BL18">
+        <v>1.225981758</v>
+      </c>
+      <c r="BM18">
+        <v>1.225981768</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -4522,34 +4357,34 @@
         <v>130</v>
       </c>
       <c r="F19">
+        <v>2.3</v>
+      </c>
+      <c r="G19">
         <v>2.34</v>
       </c>
-      <c r="G19">
-        <v>2.38</v>
-      </c>
       <c r="H19">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I19">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="J19">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K19">
         <v>3.4</v>
       </c>
       <c r="L19">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M19">
         <v>1.69</v>
       </c>
       <c r="N19">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O19">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="P19">
         <v>2.04</v>
@@ -4558,7 +4393,7 @@
         <v>2.18</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S19">
         <v>1.97</v>
@@ -4582,10 +4417,10 @@
         <v>24</v>
       </c>
       <c r="Z19">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA19">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB19">
         <v>7.4</v>
@@ -4606,13 +4441,13 @@
         <v>16.5</v>
       </c>
       <c r="AH19">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AI19">
         <v>55</v>
       </c>
       <c r="AJ19">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK19">
         <v>13</v>
@@ -4630,10 +4465,10 @@
         <v>23</v>
       </c>
       <c r="AP19">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AQ19">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR19">
         <v>27</v>
@@ -4666,7 +4501,7 @@
         <v>28</v>
       </c>
       <c r="BB19">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BC19">
         <v>70</v>
@@ -4677,8 +4512,8 @@
       <c r="BE19">
         <v>1000</v>
       </c>
-      <c r="BF19" t="s">
-        <v>141</v>
+      <c r="BF19">
+        <v>33098476</v>
       </c>
       <c r="BG19">
         <v>17790476</v>
@@ -4689,17 +4524,17 @@
       <c r="BI19">
         <v>58805</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>152</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>174</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>185</v>
+      <c r="BJ19">
+        <v>1.226012535</v>
+      </c>
+      <c r="BK19">
+        <v>1.226012545</v>
+      </c>
+      <c r="BL19">
+        <v>1.226012534</v>
+      </c>
+      <c r="BM19">
+        <v>1.226012544</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -4719,7 +4554,7 @@
         <v>131</v>
       </c>
       <c r="F20">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G20">
         <v>1.89</v>
@@ -4728,25 +4563,25 @@
         <v>4.7</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J20">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K20">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="N20">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="O20">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="P20">
         <v>1.85</v>
@@ -4770,7 +4605,7 @@
         <v>15.5</v>
       </c>
       <c r="W20">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X20">
         <v>30</v>
@@ -4779,16 +4614,16 @@
         <v>36</v>
       </c>
       <c r="Z20">
-        <v>13.5</v>
+        <v>90</v>
       </c>
       <c r="AA20">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB20">
         <v>8.4</v>
       </c>
       <c r="AC20">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20">
         <v>7.8</v>
@@ -4803,7 +4638,7 @@
         <v>19</v>
       </c>
       <c r="AH20">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AI20">
         <v>65</v>
@@ -4827,7 +4662,7 @@
         <v>19.5</v>
       </c>
       <c r="AP20">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AQ20">
         <v>70</v>
@@ -4845,37 +4680,37 @@
         <v>19.5</v>
       </c>
       <c r="AV20">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AW20">
         <v>36</v>
       </c>
       <c r="AX20">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AY20">
         <v>110</v>
       </c>
       <c r="AZ20">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="BA20">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BB20">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="BC20">
         <v>70</v>
       </c>
       <c r="BD20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BE20">
         <v>1000</v>
       </c>
-      <c r="BF20" t="s">
-        <v>142</v>
+      <c r="BF20">
+        <v>33096943</v>
       </c>
       <c r="BG20">
         <v>171912</v>
@@ -4886,17 +4721,17 @@
       <c r="BI20">
         <v>58805</v>
       </c>
-      <c r="BJ20" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>164</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>175</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>186</v>
+      <c r="BJ20">
+        <v>1.225986207</v>
+      </c>
+      <c r="BK20">
+        <v>1.225986217</v>
+      </c>
+      <c r="BL20">
+        <v>1.225986206</v>
+      </c>
+      <c r="BM20">
+        <v>1.225986216</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -4916,13 +4751,13 @@
         <v>132</v>
       </c>
       <c r="F21">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G21">
         <v>2.92</v>
       </c>
       <c r="H21">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I21">
         <v>2.78</v>
@@ -4931,19 +4766,19 @@
         <v>3.5</v>
       </c>
       <c r="K21">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L21">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="M21">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="N21">
         <v>1.89</v>
       </c>
       <c r="O21">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="P21">
         <v>1.71</v>
@@ -4952,7 +4787,7 @@
         <v>1.79</v>
       </c>
       <c r="R21">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="S21">
         <v>2.42</v>
@@ -4976,7 +4811,7 @@
         <v>18</v>
       </c>
       <c r="Z21">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA21">
         <v>40</v>
@@ -4991,7 +4826,7 @@
         <v>7.4</v>
       </c>
       <c r="AE21">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AF21">
         <v>11</v>
@@ -5033,7 +4868,7 @@
         <v>32</v>
       </c>
       <c r="AS21">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AT21">
         <v>25</v>
@@ -5042,16 +4877,16 @@
         <v>30</v>
       </c>
       <c r="AV21">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AW21">
+        <v>40</v>
+      </c>
+      <c r="AX21">
         <v>50</v>
       </c>
-      <c r="AX21">
-        <v>34</v>
-      </c>
       <c r="AY21">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AZ21">
         <v>19</v>
@@ -5063,16 +4898,16 @@
         <v>17.5</v>
       </c>
       <c r="BC21">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="BD21">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="BE21">
         <v>980</v>
       </c>
-      <c r="BF21" t="s">
-        <v>143</v>
+      <c r="BF21">
+        <v>33096750</v>
       </c>
       <c r="BG21">
         <v>39013198</v>
@@ -5083,17 +4918,17 @@
       <c r="BI21">
         <v>58805</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>154</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>165</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>176</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>187</v>
+      <c r="BJ21">
+        <v>1.225984939</v>
+      </c>
+      <c r="BK21">
+        <v>1.225984949</v>
+      </c>
+      <c r="BL21">
+        <v>1.225984938</v>
+      </c>
+      <c r="BM21">
+        <v>1.225984948</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5113,25 +4948,25 @@
         <v>133</v>
       </c>
       <c r="F22">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G22">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H22">
+        <v>3.2</v>
+      </c>
+      <c r="I22">
         <v>3.3</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3.45</v>
       </c>
-      <c r="J22">
-        <v>3.4</v>
-      </c>
       <c r="K22">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L22">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="M22">
         <v>1.97</v>
@@ -5140,10 +4975,10 @@
         <v>2.02</v>
       </c>
       <c r="O22">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="P22">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q22">
         <v>1.91</v>
@@ -5152,7 +4987,7 @@
         <v>2.1</v>
       </c>
       <c r="S22">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T22">
         <v>11.5</v>
@@ -5167,49 +5002,49 @@
         <v>13.5</v>
       </c>
       <c r="X22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y22">
         <v>24</v>
       </c>
       <c r="Z22">
-        <v>7.6</v>
+        <v>44</v>
       </c>
       <c r="AA22">
         <v>60</v>
       </c>
       <c r="AB22">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AC22">
         <v>10.5</v>
       </c>
       <c r="AD22">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE22">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AF22">
         <v>12.5</v>
       </c>
       <c r="AG22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH22">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI22">
         <v>40</v>
       </c>
       <c r="AJ22">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK22">
         <v>16</v>
       </c>
       <c r="AL22">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AM22">
         <v>12</v>
@@ -5218,16 +5053,16 @@
         <v>15</v>
       </c>
       <c r="AO22">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AP22">
-        <v>7.4</v>
+        <v>40</v>
       </c>
       <c r="AQ22">
         <v>50</v>
       </c>
       <c r="AR22">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AS22">
         <v>34</v>
@@ -5239,37 +5074,37 @@
         <v>28</v>
       </c>
       <c r="AV22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AW22">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AX22">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="AY22">
         <v>110</v>
       </c>
       <c r="AZ22">
-        <v>6.6</v>
+        <v>17.5</v>
       </c>
       <c r="BA22">
         <v>22</v>
       </c>
       <c r="BB22">
-        <v>9.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="BC22">
         <v>38</v>
       </c>
       <c r="BD22">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="BE22">
         <v>1000</v>
       </c>
-      <c r="BF22" t="s">
-        <v>144</v>
+      <c r="BF22">
+        <v>33096962</v>
       </c>
       <c r="BG22">
         <v>2937353</v>
@@ -5280,17 +5115,17 @@
       <c r="BI22">
         <v>58805</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>155</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>166</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>177</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>188</v>
+      <c r="BJ22">
+        <v>1.225985991</v>
+      </c>
+      <c r="BK22">
+        <v>1.225986001</v>
+      </c>
+      <c r="BL22">
+        <v>1.22598599</v>
+      </c>
+      <c r="BM22">
+        <v>1.225986</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5310,28 +5145,28 @@
         <v>134</v>
       </c>
       <c r="F23">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="G23">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="H23">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I23">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J23">
         <v>2.94</v>
       </c>
       <c r="K23">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L23">
         <v>1.57</v>
       </c>
       <c r="M23">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="N23">
         <v>2.28</v>
@@ -5340,31 +5175,31 @@
         <v>2.76</v>
       </c>
       <c r="P23">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q23">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="R23">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="S23">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="T23">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="U23">
         <v>11.5</v>
       </c>
       <c r="V23">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="W23">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X23">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y23">
         <v>32</v>
@@ -5373,7 +5208,7 @@
         <v>55</v>
       </c>
       <c r="AA23">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB23">
         <v>6.6</v>
@@ -5385,52 +5220,52 @@
         <v>6.2</v>
       </c>
       <c r="AE23">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF23">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH23">
         <v>40</v>
       </c>
       <c r="AI23">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ23">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AK23">
         <v>15.5</v>
       </c>
       <c r="AL23">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AM23">
         <v>14.5</v>
       </c>
       <c r="AN23">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AO23">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP23">
         <v>55</v>
       </c>
       <c r="AQ23">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AR23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS23">
         <v>38</v>
       </c>
       <c r="AT23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU23">
         <v>36</v>
@@ -5442,10 +5277,10 @@
         <v>70</v>
       </c>
       <c r="AX23">
-        <v>110</v>
+        <v>1.01</v>
       </c>
       <c r="AY23">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AZ23">
         <v>1.01</v>
@@ -5457,7 +5292,7 @@
         <v>1.01</v>
       </c>
       <c r="BC23">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BD23">
         <v>1.01</v>
@@ -5465,8 +5300,8 @@
       <c r="BE23">
         <v>1000</v>
       </c>
-      <c r="BF23" t="s">
-        <v>145</v>
+      <c r="BF23">
+        <v>33112939</v>
       </c>
       <c r="BG23">
         <v>13442344</v>
@@ -5477,17 +5312,17 @@
       <c r="BI23">
         <v>58805</v>
       </c>
-      <c r="BJ23" t="s">
-        <v>156</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>167</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>178</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>189</v>
+      <c r="BJ23">
+        <v>1.226210026</v>
+      </c>
+      <c r="BK23">
+        <v>1.226210071</v>
+      </c>
+      <c r="BL23">
+        <v>1.22621011</v>
+      </c>
+      <c r="BM23">
+        <v>1.226210035</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -5507,40 +5342,40 @@
         <v>135</v>
       </c>
       <c r="F24">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="G24">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H24">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I24">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J24">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K24">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L24">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="M24">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="N24">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="O24">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P24">
         <v>1.88</v>
       </c>
       <c r="Q24">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R24">
         <v>2.04</v>
@@ -5549,25 +5384,25 @@
         <v>2.14</v>
       </c>
       <c r="T24">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="U24">
         <v>18</v>
       </c>
       <c r="V24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W24">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="X24">
         <v>46</v>
       </c>
       <c r="Y24">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z24">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AA24">
         <v>260</v>
@@ -5579,19 +5414,19 @@
         <v>9.4</v>
       </c>
       <c r="AD24">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AE24">
         <v>10.5</v>
       </c>
       <c r="AF24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH24">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="AI24">
         <v>120</v>
@@ -5600,70 +5435,70 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AK24">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AL24">
         <v>9.199999999999999</v>
       </c>
       <c r="AM24">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AN24">
         <v>20</v>
       </c>
       <c r="AO24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP24">
+        <v>60</v>
+      </c>
+      <c r="AQ24">
+        <v>85</v>
+      </c>
+      <c r="AR24">
+        <v>13</v>
+      </c>
+      <c r="AS24">
+        <v>15</v>
+      </c>
+      <c r="AT24">
+        <v>14.5</v>
+      </c>
+      <c r="AU24">
         <v>16</v>
       </c>
-      <c r="AQ24">
-        <v>110</v>
-      </c>
-      <c r="AR24">
-        <v>12.5</v>
-      </c>
-      <c r="AS24">
-        <v>14</v>
-      </c>
-      <c r="AT24">
-        <v>14</v>
-      </c>
-      <c r="AU24">
-        <v>15.5</v>
-      </c>
       <c r="AV24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW24">
         <v>34</v>
       </c>
       <c r="AX24">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AY24">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AZ24">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="BA24">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BB24">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="BC24">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="BD24">
-        <v>6.2</v>
+        <v>11.5</v>
       </c>
       <c r="BE24">
         <v>1000</v>
       </c>
-      <c r="BF24" t="s">
-        <v>146</v>
+      <c r="BF24">
+        <v>33098377</v>
       </c>
       <c r="BG24">
         <v>328916</v>
@@ -5674,17 +5509,17 @@
       <c r="BI24">
         <v>58805</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>168</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>179</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>190</v>
+      <c r="BJ24">
+        <v>1.22601172</v>
+      </c>
+      <c r="BK24">
+        <v>1.226011765</v>
+      </c>
+      <c r="BL24">
+        <v>1.226011804</v>
+      </c>
+      <c r="BM24">
+        <v>1.226011729</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -5704,22 +5539,22 @@
         <v>136</v>
       </c>
       <c r="F25">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G25">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="H25">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I25">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J25">
         <v>4.6</v>
       </c>
       <c r="K25">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L25">
         <v>2.58</v>
@@ -5746,10 +5581,10 @@
         <v>2.6</v>
       </c>
       <c r="T25">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="U25">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V25">
         <v>19.5</v>
@@ -5758,37 +5593,37 @@
         <v>34</v>
       </c>
       <c r="X25">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="Y25">
         <v>60</v>
       </c>
       <c r="Z25">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="AA25">
         <v>160</v>
       </c>
       <c r="AB25">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AD25">
         <v>9.4</v>
       </c>
       <c r="AE25">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF25">
         <v>16</v>
       </c>
       <c r="AG25">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AH25">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="AI25">
         <v>75</v>
@@ -5803,16 +5638,16 @@
         <v>8.6</v>
       </c>
       <c r="AM25">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AN25">
         <v>13.5</v>
       </c>
       <c r="AO25">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP25">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="AQ25">
         <v>70</v>
@@ -5821,7 +5656,7 @@
         <v>12</v>
       </c>
       <c r="AS25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT25">
         <v>12</v>
@@ -5833,34 +5668,34 @@
         <v>21</v>
       </c>
       <c r="AW25">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AX25">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="AY25">
         <v>95</v>
       </c>
       <c r="AZ25">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="BA25">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="BB25">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="BC25">
         <v>65</v>
       </c>
       <c r="BD25">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="BE25">
-        <v>630</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>147</v>
+        <v>980</v>
+      </c>
+      <c r="BF25">
+        <v>33096711</v>
       </c>
       <c r="BG25">
         <v>4468457</v>
@@ -5871,17 +5706,17 @@
       <c r="BI25">
         <v>58805</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>158</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>169</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>180</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>191</v>
+      <c r="BJ25">
+        <v>1.225984139</v>
+      </c>
+      <c r="BK25">
+        <v>1.225984184</v>
+      </c>
+      <c r="BL25">
+        <v>1.225984223</v>
+      </c>
+      <c r="BM25">
+        <v>1.225984148</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -5901,133 +5736,133 @@
         <v>137</v>
       </c>
       <c r="F26">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G26">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H26">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I26">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J26">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K26">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L26">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="M26">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="N26">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="O26">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="P26">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q26">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S26">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T26">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="U26">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="V26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W26">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y26">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z26">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AA26">
         <v>980</v>
       </c>
       <c r="AB26">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC26">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AE26">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF26">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AG26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH26">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="AI26">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AJ26">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AK26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL26">
         <v>9.4</v>
       </c>
       <c r="AM26">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AN26">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO26">
         <v>27</v>
       </c>
       <c r="AP26">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="AQ26">
         <v>980</v>
       </c>
       <c r="AR26">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AS26">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AT26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU26">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AV26">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="AW26">
         <v>65</v>
@@ -6039,10 +5874,10 @@
         <v>980</v>
       </c>
       <c r="AZ26">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BA26">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="BB26">
         <v>4.7</v>
@@ -6056,8 +5891,8 @@
       <c r="BE26">
         <v>1000</v>
       </c>
-      <c r="BF26" t="s">
-        <v>148</v>
+      <c r="BF26">
+        <v>33098867</v>
       </c>
       <c r="BG26">
         <v>1067444</v>
@@ -6068,17 +5903,17 @@
       <c r="BI26">
         <v>58805</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>181</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>192</v>
+      <c r="BJ26">
+        <v>1.2260225</v>
+      </c>
+      <c r="BK26">
+        <v>1.22602251</v>
+      </c>
+      <c r="BL26">
+        <v>1.226022499</v>
+      </c>
+      <c r="BM26">
+        <v>1.226022509</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6098,76 +5933,76 @@
         <v>138</v>
       </c>
       <c r="F27">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="G27">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H27">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I27">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="J27">
         <v>4.4</v>
       </c>
       <c r="K27">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L27">
         <v>2.76</v>
       </c>
       <c r="M27">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="N27">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="O27">
         <v>1.57</v>
       </c>
       <c r="P27">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q27">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R27">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="S27">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="T27">
         <v>23</v>
       </c>
       <c r="U27">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="V27">
         <v>23</v>
       </c>
       <c r="W27">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X27">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y27">
         <v>44</v>
       </c>
       <c r="Z27">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AA27">
         <v>110</v>
       </c>
       <c r="AB27">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC27">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AD27">
         <v>10</v>
@@ -6182,22 +6017,22 @@
         <v>19</v>
       </c>
       <c r="AH27">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AI27">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ27">
         <v>12.5</v>
       </c>
       <c r="AK27">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL27">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AM27">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AN27">
         <v>14.5</v>
@@ -6206,13 +6041,13 @@
         <v>16.5</v>
       </c>
       <c r="AP27">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AQ27">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AR27">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AS27">
         <v>21</v>
@@ -6230,7 +6065,7 @@
         <v>24</v>
       </c>
       <c r="AX27">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AY27">
         <v>65</v>
@@ -6239,22 +6074,22 @@
         <v>6.2</v>
       </c>
       <c r="BA27">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="BB27">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="BC27">
         <v>34</v>
       </c>
       <c r="BD27">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="BE27">
         <v>980</v>
       </c>
-      <c r="BF27" t="s">
-        <v>149</v>
+      <c r="BF27">
+        <v>33098502</v>
       </c>
       <c r="BG27">
         <v>2658589</v>
@@ -6265,17 +6100,17 @@
       <c r="BI27">
         <v>58805</v>
       </c>
-      <c r="BJ27" t="s">
-        <v>160</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>171</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>182</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>193</v>
+      <c r="BJ27">
+        <v>1.22601344</v>
+      </c>
+      <c r="BK27">
+        <v>1.22601345</v>
+      </c>
+      <c r="BL27">
+        <v>1.226013439</v>
+      </c>
+      <c r="BM27">
+        <v>1.226013449</v>
       </c>
     </row>
   </sheetData>
